--- a/src/test/java/excel/export/export2.xlsx
+++ b/src/test/java/excel/export/export2.xlsx
@@ -1442,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="22" t="n">
-        <v>43784.433912465276</v>
+        <v>44029.773285972224</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>21</v>
@@ -1477,7 +1477,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="22" t="n">
-        <v>43784.433912465276</v>
+        <v>44029.77328599537</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>21</v>
@@ -1512,7 +1512,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="22" t="n">
-        <v>43784.43391247685</v>
+        <v>44029.773286006945</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>21</v>
@@ -1547,7 +1547,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="22" t="n">
-        <v>43784.43391247685</v>
+        <v>44029.77328601852</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>21</v>
@@ -1582,7 +1582,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="22" t="n">
-        <v>43784.43391248843</v>
+        <v>44029.77328603009</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>21</v>
@@ -1617,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="22" t="n">
-        <v>43784.43391248843</v>
+        <v>44029.77328605324</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>21</v>
@@ -1652,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="22" t="n">
-        <v>43784.4339125</v>
+        <v>44029.77328606482</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>21</v>
@@ -1687,7 +1687,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="22" t="n">
-        <v>43784.4339125</v>
+        <v>44029.77328608796</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>21</v>
@@ -1722,7 +1722,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="22" t="n">
-        <v>43784.43391251157</v>
+        <v>44029.77328609954</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>21</v>
@@ -1757,7 +1757,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="22" t="n">
-        <v>43784.43391251157</v>
+        <v>44029.773286111114</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>21</v>

--- a/src/test/java/excel/export/export2.xlsx
+++ b/src/test/java/excel/export/export2.xlsx
@@ -11,8 +11,69 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>625</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="1">
+      <text>
+        <t>你好吗</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1">
+      <text>
+        <t>你好吗</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="1">
+      <text>
+        <t>你好吗</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1">
+      <text>
+        <t>你好吗</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="1">
+      <text>
+        <t>你好吗</t>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="1">
+      <text>
+        <t>你好吗</t>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="1">
+      <text>
+        <t>你好吗</t>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="1">
+      <text>
+        <t>你好吗</t>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="1">
+      <text>
+        <t>你好吗</t>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="1">
+      <text>
+        <t>你好吗</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>平均分</t>
   </si>
@@ -74,9 +135,6 @@
     <t>李四0</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -161,10 +219,10 @@
     <t>李四9</t>
   </si>
   <si>
-    <t>导出参考代码！</t>
-  </si>
-  <si>
-    <t>注释:</t>
+    <t>=SUM(H4:H13)</t>
+  </si>
+  <si>
+    <t>合计:</t>
   </si>
 </sst>
 </file>
@@ -259,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -335,24 +393,32 @@
         <color indexed="8"/>
       </bottom>
     </border>
-    <border/>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left>
         <color indexed="8"/>
       </left>
+      <right/>
       <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left>
@@ -365,6 +431,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left>
@@ -379,6 +446,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thin"/>
@@ -571,26 +639,37 @@
     </border>
     <border>
       <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
-      <top style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
       <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -603,6 +682,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -617,6 +697,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -660,11 +741,16 @@
     <border>
       <left style="thin"/>
       <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -673,6 +759,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -683,6 +770,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -695,6 +783,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -709,6 +798,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -858,39 +948,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -922,11 +1012,11 @@
     <xf numFmtId="164" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment wrapText="false" horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1438,14 +1528,14 @@
       <c r="H4" s="16" t="n">
         <v>50.0</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J4" s="22" t="n">
+        <v>44195.64575222222</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="22" t="n">
-        <v>44029.773285972224</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1453,7 +1543,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -1465,22 +1555,22 @@
         <v>17</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="16" t="n">
         <v>50.0</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J5" s="22" t="n">
+        <v>44195.64575222222</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J5" s="22" t="n">
-        <v>44029.77328599537</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1488,7 +1578,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -1500,22 +1590,22 @@
         <v>17</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="H6" s="16" t="n">
         <v>50.0</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <v>44195.64575224537</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="22" t="n">
-        <v>44029.773286006945</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1523,7 +1613,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -1535,22 +1625,22 @@
         <v>17</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H7" s="16" t="n">
         <v>50.0</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J7" s="22" t="n">
+        <v>44195.64575225695</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J7" s="22" t="n">
-        <v>44029.77328601852</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1558,7 +1648,7 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -1570,22 +1660,22 @@
         <v>17</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H8" s="16" t="n">
         <v>50.0</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J8" s="22" t="n">
+        <v>44195.645752268516</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J8" s="22" t="n">
-        <v>44029.77328603009</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1593,7 +1683,7 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -1605,22 +1695,22 @@
         <v>17</v>
       </c>
       <c r="F9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="16" t="n">
         <v>50.0</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J9" s="22" t="n">
+        <v>44195.64575228009</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J9" s="22" t="n">
-        <v>44029.77328605324</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1628,7 +1718,7 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
@@ -1640,22 +1730,22 @@
         <v>17</v>
       </c>
       <c r="F10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="H10" s="16" t="n">
         <v>50.0</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J10" s="22" t="n">
+        <v>44195.64575229167</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J10" s="22" t="n">
-        <v>44029.77328606482</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -1663,7 +1753,7 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
@@ -1675,22 +1765,22 @@
         <v>17</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="16" t="n">
         <v>50.0</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J11" s="22" t="n">
+        <v>44195.645752303244</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J11" s="22" t="n">
-        <v>44029.77328608796</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1698,7 +1788,7 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
@@ -1710,22 +1800,22 @@
         <v>17</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="H12" s="16" t="n">
         <v>50.0</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J12" s="22" t="n">
+        <v>44195.64575231481</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J12" s="22" t="n">
-        <v>44029.77328609954</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -1733,7 +1823,7 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -1745,32 +1835,33 @@
         <v>17</v>
       </c>
       <c r="F13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="16" t="n">
         <v>50.0</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="17" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="J13" s="22" t="n">
+        <v>44195.64575232639</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J13" s="22" t="n">
-        <v>44029.773286111114</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="23"/>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <f>SUM(H4:H13)</f>
+        <v>48</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1794,7 +1885,7 @@
       <c r="K15" s="24"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="10">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="J2:J3"/>
@@ -1830,5 +1921,6 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/java/excel/export/export2.xlsx
+++ b/src/test/java/excel/export/export2.xlsx
@@ -18,34 +18,54 @@
   </authors>
   <commentList>
     <comment ref="C4" authorId="0">
-      <text/>
+      <text>
+        <t>你好吗</t>
+      </text>
     </comment>
     <comment ref="C5" authorId="0">
-      <text/>
+      <text>
+        <t>你好吗</t>
+      </text>
     </comment>
     <comment ref="C6" authorId="0">
-      <text/>
+      <text>
+        <t>你好吗</t>
+      </text>
     </comment>
     <comment ref="C7" authorId="0">
-      <text/>
+      <text>
+        <t>你好吗</t>
+      </text>
     </comment>
     <comment ref="C8" authorId="0">
-      <text/>
+      <text>
+        <t>你好吗</t>
+      </text>
     </comment>
     <comment ref="C9" authorId="0">
-      <text/>
+      <text>
+        <t>你好吗</t>
+      </text>
     </comment>
     <comment ref="C10" authorId="0">
-      <text/>
+      <text>
+        <t>你好吗</t>
+      </text>
     </comment>
     <comment ref="C11" authorId="0">
-      <text/>
+      <text>
+        <t>你好吗</t>
+      </text>
     </comment>
     <comment ref="C12" authorId="0">
-      <text/>
+      <text>
+        <t>你好吗</t>
+      </text>
     </comment>
     <comment ref="C13" authorId="0">
-      <text/>
+      <text>
+        <t>你好吗</t>
+      </text>
     </comment>
   </commentList>
 </comments>
@@ -99,7 +119,7 @@
     <t>中青旅0</t>
   </si>
   <si>
-    <t>华东长三角0.6673504519926025</t>
+    <t>华东长三角0.3755518543329601</t>
   </si>
   <si>
     <t>陕西省</t>
@@ -120,7 +140,7 @@
     <t>中青旅1</t>
   </si>
   <si>
-    <t>华东长三角0.0033600025210959172</t>
+    <t>华东长三角0.5159042233392859</t>
   </si>
   <si>
     <t>保定市1</t>
@@ -135,7 +155,7 @@
     <t>中青旅2</t>
   </si>
   <si>
-    <t>华东长三角0.21180050300707287</t>
+    <t>华东长三角0.9451291865565267</t>
   </si>
   <si>
     <t>保定市2</t>
@@ -150,7 +170,7 @@
     <t>中青旅3</t>
   </si>
   <si>
-    <t>华东长三角0.6655171723227766</t>
+    <t>华东长三角0.3320499312844378</t>
   </si>
   <si>
     <t>保定市3</t>
@@ -165,7 +185,7 @@
     <t>中青旅4</t>
   </si>
   <si>
-    <t>华东长三角0.6782382819728692</t>
+    <t>华东长三角0.6269490659533549</t>
   </si>
   <si>
     <t>保定市4</t>
@@ -180,7 +200,7 @@
     <t>中青旅5</t>
   </si>
   <si>
-    <t>华东长三角0.06505039828059611</t>
+    <t>华东长三角0.10739281537941259</t>
   </si>
   <si>
     <t>保定市5</t>
@@ -195,7 +215,7 @@
     <t>中青旅6</t>
   </si>
   <si>
-    <t>华东长三角0.4043900215210534</t>
+    <t>华东长三角0.9051993179294876</t>
   </si>
   <si>
     <t>保定市6</t>
@@ -210,7 +230,7 @@
     <t>中青旅7</t>
   </si>
   <si>
-    <t>华东长三角0.22803906915245997</t>
+    <t>华东长三角0.09285296550850797</t>
   </si>
   <si>
     <t>保定市7</t>
@@ -225,7 +245,7 @@
     <t>中青旅8</t>
   </si>
   <si>
-    <t>华东长三角0.025431910104443345</t>
+    <t>华东长三角0.4367985342581433</t>
   </si>
   <si>
     <t>保定市8</t>
@@ -240,7 +260,7 @@
     <t>中青旅9</t>
   </si>
   <si>
-    <t>华东长三角0.11075793523667343</t>
+    <t>华东长三角0.875203916975258</t>
   </si>
   <si>
     <t>保定市9</t>
@@ -1325,7 +1345,10 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="true">
+      <pane ySplit="3.0" state="frozen" topLeftCell="A4" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -1432,13 +1455,13 @@
         <v>19</v>
       </c>
       <c r="H4" s="16" t="n">
-        <v>0.0</v>
+        <v>734.0</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>0.48176018343015947</v>
+        <v>0.5038186886858709</v>
       </c>
       <c r="J4" s="22" t="n">
-        <v>44546.585079108794</v>
+        <v>44547.406172916664</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -1467,13 +1490,13 @@
         <v>25</v>
       </c>
       <c r="H5" s="16" t="n">
-        <v>0.0</v>
+        <v>575.0</v>
       </c>
       <c r="I5" s="17" t="n">
-        <v>0.26603663993417326</v>
+        <v>0.3663270955276685</v>
       </c>
       <c r="J5" s="22" t="n">
-        <v>44546.58507912037</v>
+        <v>44547.40617292824</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -1502,13 +1525,13 @@
         <v>30</v>
       </c>
       <c r="H6" s="16" t="n">
-        <v>0.0</v>
+        <v>122.0</v>
       </c>
       <c r="I6" s="17" t="n">
-        <v>0.4280736283477834</v>
+        <v>0.9754397287112981</v>
       </c>
       <c r="J6" s="22" t="n">
-        <v>44546.585079131946</v>
+        <v>44547.406172939816</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -1537,13 +1560,13 @@
         <v>35</v>
       </c>
       <c r="H7" s="16" t="n">
-        <v>0.0</v>
+        <v>267.0</v>
       </c>
       <c r="I7" s="17" t="n">
-        <v>0.6205402897463423</v>
+        <v>0.24655707884062172</v>
       </c>
       <c r="J7" s="22" t="n">
-        <v>44546.585079143515</v>
+        <v>44547.40617295139</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -1572,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="H8" s="16" t="n">
-        <v>0.0</v>
+        <v>767.0</v>
       </c>
       <c r="I8" s="17" t="n">
-        <v>0.8132057971292452</v>
+        <v>0.6105885790423681</v>
       </c>
       <c r="J8" s="22" t="n">
-        <v>44546.58507915509</v>
+        <v>44547.40617296296</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>20</v>
@@ -1607,13 +1630,13 @@
         <v>45</v>
       </c>
       <c r="H9" s="16" t="n">
-        <v>0.0</v>
+        <v>335.0</v>
       </c>
       <c r="I9" s="17" t="n">
-        <v>0.3458347361880264</v>
+        <v>0.4989705099447167</v>
       </c>
       <c r="J9" s="22" t="n">
-        <v>44546.58507916667</v>
+        <v>44547.40617297454</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>20</v>
@@ -1642,13 +1665,13 @@
         <v>50</v>
       </c>
       <c r="H10" s="16" t="n">
-        <v>0.0</v>
+        <v>851.0</v>
       </c>
       <c r="I10" s="17" t="n">
-        <v>0.5485004723531064</v>
+        <v>0.5215799689725595</v>
       </c>
       <c r="J10" s="22" t="n">
-        <v>44546.58507917824</v>
+        <v>44547.40617298611</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>20</v>
@@ -1677,13 +1700,13 @@
         <v>55</v>
       </c>
       <c r="H11" s="16" t="n">
-        <v>0.0</v>
+        <v>381.0</v>
       </c>
       <c r="I11" s="17" t="n">
-        <v>0.7064121427147175</v>
+        <v>0.6752711612705632</v>
       </c>
       <c r="J11" s="22" t="n">
-        <v>44546.58507918981</v>
+        <v>44547.40617299768</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>20</v>
@@ -1712,13 +1735,13 @@
         <v>60</v>
       </c>
       <c r="H12" s="16" t="n">
-        <v>0.0</v>
+        <v>277.0</v>
       </c>
       <c r="I12" s="17" t="n">
-        <v>0.21936043789751714</v>
+        <v>0.2001157550302649</v>
       </c>
       <c r="J12" s="22" t="n">
-        <v>44546.58507918981</v>
+        <v>44547.40617300926</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>20</v>
@@ -1747,13 +1770,13 @@
         <v>65</v>
       </c>
       <c r="H13" s="16" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="I13" s="17" t="n">
-        <v>0.40630525769737147</v>
+        <v>0.6690457073185982</v>
       </c>
       <c r="J13" s="22" t="n">
-        <v>44546.58507920139</v>
+        <v>44547.406173020834</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>20</v>
@@ -1804,7 +1827,7 @@
     <mergeCell ref="A14:C15"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" sqref="D4:D65536" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true" showInputMessage="true" promptTitle="提示" prompt="只能选择下拉框里面的数据">
+    <dataValidation type="list" sqref="D4:D13" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true" showInputMessage="true" promptTitle="提示" prompt="只能选择下拉框里面的数据">
       <formula1>"陕西省,山西省,辽宁省"</formula1>
     </dataValidation>
     <dataValidation type="custom" sqref="G4:G65536" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true" promptTitle="提示" prompt="名字长度必须大于2位">
@@ -1812,10 +1835,10 @@
     </dataValidation>
     <dataValidation type="whole" operator="between" sqref="H4:H65536" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
       <formula1>10</formula1>
-      <formula2>20</formula2>
+      <formula2>2000</formula2>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="I4:I65536" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
-      <formula1>10.0</formula1>
+      <formula1>0.0</formula1>
       <formula2>20.0</formula2>
     </dataValidation>
     <dataValidation type="date" operator="between" sqref="J4:J65536" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">

--- a/src/test/java/excel/export/export2.xlsx
+++ b/src/test/java/excel/export/export2.xlsx
@@ -119,7 +119,7 @@
     <t>中青旅0</t>
   </si>
   <si>
-    <t>华东长三角0.3755518543329601</t>
+    <t>华东长三角0.6225640216568922</t>
   </si>
   <si>
     <t>陕西省</t>
@@ -140,7 +140,7 @@
     <t>中青旅1</t>
   </si>
   <si>
-    <t>华东长三角0.5159042233392859</t>
+    <t>华东长三角0.05646851222225424</t>
   </si>
   <si>
     <t>保定市1</t>
@@ -155,7 +155,7 @@
     <t>中青旅2</t>
   </si>
   <si>
-    <t>华东长三角0.9451291865565267</t>
+    <t>华东长三角0.16833128407409637</t>
   </si>
   <si>
     <t>保定市2</t>
@@ -170,7 +170,7 @@
     <t>中青旅3</t>
   </si>
   <si>
-    <t>华东长三角0.3320499312844378</t>
+    <t>华东长三角0.55174202574244</t>
   </si>
   <si>
     <t>保定市3</t>
@@ -185,7 +185,7 @@
     <t>中青旅4</t>
   </si>
   <si>
-    <t>华东长三角0.6269490659533549</t>
+    <t>华东长三角0.5612171319702421</t>
   </si>
   <si>
     <t>保定市4</t>
@@ -200,7 +200,7 @@
     <t>中青旅5</t>
   </si>
   <si>
-    <t>华东长三角0.10739281537941259</t>
+    <t>华东长三角0.16775751321026022</t>
   </si>
   <si>
     <t>保定市5</t>
@@ -215,7 +215,7 @@
     <t>中青旅6</t>
   </si>
   <si>
-    <t>华东长三角0.9051993179294876</t>
+    <t>华东长三角0.6518937815377641</t>
   </si>
   <si>
     <t>保定市6</t>
@@ -230,7 +230,7 @@
     <t>中青旅7</t>
   </si>
   <si>
-    <t>华东长三角0.09285296550850797</t>
+    <t>华东长三角0.07918816169136489</t>
   </si>
   <si>
     <t>保定市7</t>
@@ -245,7 +245,7 @@
     <t>中青旅8</t>
   </si>
   <si>
-    <t>华东长三角0.4367985342581433</t>
+    <t>华东长三角0.7307440070050814</t>
   </si>
   <si>
     <t>保定市8</t>
@@ -260,7 +260,7 @@
     <t>中青旅9</t>
   </si>
   <si>
-    <t>华东长三角0.875203916975258</t>
+    <t>华东长三角0.19921101125881713</t>
   </si>
   <si>
     <t>保定市9</t>
@@ -1455,13 +1455,13 @@
         <v>19</v>
       </c>
       <c r="H4" s="16" t="n">
-        <v>734.0</v>
+        <v>477.0</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>0.5038186886858709</v>
+        <v>0.2650442260187622</v>
       </c>
       <c r="J4" s="22" t="n">
-        <v>44547.406172916664</v>
+        <v>44547.43659747685</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -1490,13 +1490,13 @@
         <v>25</v>
       </c>
       <c r="H5" s="16" t="n">
-        <v>575.0</v>
+        <v>734.0</v>
       </c>
       <c r="I5" s="17" t="n">
-        <v>0.3663270955276685</v>
+        <v>0.9862028771136901</v>
       </c>
       <c r="J5" s="22" t="n">
-        <v>44547.40617292824</v>
+        <v>44547.4365975</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -1525,13 +1525,13 @@
         <v>30</v>
       </c>
       <c r="H6" s="16" t="n">
-        <v>122.0</v>
+        <v>761.0</v>
       </c>
       <c r="I6" s="17" t="n">
-        <v>0.9754397287112981</v>
+        <v>0.10910750468995578</v>
       </c>
       <c r="J6" s="22" t="n">
-        <v>44547.406172939816</v>
+        <v>44547.43659751157</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -1560,13 +1560,13 @@
         <v>35</v>
       </c>
       <c r="H7" s="16" t="n">
-        <v>267.0</v>
+        <v>914.0</v>
       </c>
       <c r="I7" s="17" t="n">
-        <v>0.24655707884062172</v>
+        <v>0.7475588960931183</v>
       </c>
       <c r="J7" s="22" t="n">
-        <v>44547.40617295139</v>
+        <v>44547.43659752315</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="H8" s="16" t="n">
-        <v>767.0</v>
+        <v>181.0</v>
       </c>
       <c r="I8" s="17" t="n">
-        <v>0.6105885790423681</v>
+        <v>0.5496565062235417</v>
       </c>
       <c r="J8" s="22" t="n">
-        <v>44547.40617296296</v>
+        <v>44547.436597534725</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>20</v>
@@ -1630,13 +1630,13 @@
         <v>45</v>
       </c>
       <c r="H9" s="16" t="n">
-        <v>335.0</v>
+        <v>889.0</v>
       </c>
       <c r="I9" s="17" t="n">
-        <v>0.4989705099447167</v>
+        <v>0.13415582888971123</v>
       </c>
       <c r="J9" s="22" t="n">
-        <v>44547.40617297454</v>
+        <v>44547.43659754629</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>20</v>
@@ -1665,13 +1665,13 @@
         <v>50</v>
       </c>
       <c r="H10" s="16" t="n">
-        <v>851.0</v>
+        <v>263.0</v>
       </c>
       <c r="I10" s="17" t="n">
-        <v>0.5215799689725595</v>
+        <v>0.7771306793294843</v>
       </c>
       <c r="J10" s="22" t="n">
-        <v>44547.40617298611</v>
+        <v>44547.43659755787</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>20</v>
@@ -1700,13 +1700,13 @@
         <v>55</v>
       </c>
       <c r="H11" s="16" t="n">
-        <v>381.0</v>
+        <v>607.0</v>
       </c>
       <c r="I11" s="17" t="n">
-        <v>0.6752711612705632</v>
+        <v>0.4063262933388111</v>
       </c>
       <c r="J11" s="22" t="n">
-        <v>44547.40617299768</v>
+        <v>44547.436597569445</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>20</v>
@@ -1735,13 +1735,13 @@
         <v>60</v>
       </c>
       <c r="H12" s="16" t="n">
-        <v>277.0</v>
+        <v>969.0</v>
       </c>
       <c r="I12" s="17" t="n">
-        <v>0.2001157550302649</v>
+        <v>0.8598182197461713</v>
       </c>
       <c r="J12" s="22" t="n">
-        <v>44547.40617300926</v>
+        <v>44547.43659758102</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>20</v>
@@ -1770,13 +1770,13 @@
         <v>65</v>
       </c>
       <c r="H13" s="16" t="n">
-        <v>32.0</v>
+        <v>610.0</v>
       </c>
       <c r="I13" s="17" t="n">
-        <v>0.6690457073185982</v>
+        <v>0.5091328323185382</v>
       </c>
       <c r="J13" s="22" t="n">
-        <v>44547.406173020834</v>
+        <v>44547.43659759259</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>20</v>
@@ -1830,18 +1830,18 @@
     <dataValidation type="list" sqref="D4:D13" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true" showInputMessage="true" promptTitle="提示" prompt="只能选择下拉框里面的数据">
       <formula1>"陕西省,山西省,辽宁省"</formula1>
     </dataValidation>
-    <dataValidation type="custom" sqref="G4:G65536" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true" promptTitle="提示" prompt="名字长度必须大于2位">
+    <dataValidation type="custom" sqref="G4:G13" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true" promptTitle="提示" prompt="名字长度必须大于2位">
       <formula1>LEN(G4)&gt;2</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="between" sqref="H4:H65536" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
+    <dataValidation type="whole" operator="between" sqref="H4:H13" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
       <formula1>10</formula1>
       <formula2>2000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" sqref="I4:I65536" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
+    <dataValidation type="decimal" operator="between" sqref="I4:I13" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
       <formula1>0.0</formula1>
       <formula2>20.0</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="between" sqref="J4:J65536" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
+    <dataValidation type="date" operator="between" sqref="J4:J13" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
       <formula1>DATE(2000,1,3)</formula1>
       <formula2>DATE(3000,5,6)</formula2>
     </dataValidation>

--- a/src/test/java/excel/export/export2.xlsx
+++ b/src/test/java/excel/export/export2.xlsx
@@ -119,7 +119,7 @@
     <t>中青旅0</t>
   </si>
   <si>
-    <t>华东长三角0.6225640216568922</t>
+    <t>华东长三角0.597532822433064</t>
   </si>
   <si>
     <t>陕西省</t>
@@ -140,7 +140,7 @@
     <t>中青旅1</t>
   </si>
   <si>
-    <t>华东长三角0.05646851222225424</t>
+    <t>华东长三角0.1244936594970446</t>
   </si>
   <si>
     <t>保定市1</t>
@@ -155,7 +155,7 @@
     <t>中青旅2</t>
   </si>
   <si>
-    <t>华东长三角0.16833128407409637</t>
+    <t>华东长三角0.7119859875207821</t>
   </si>
   <si>
     <t>保定市2</t>
@@ -170,7 +170,7 @@
     <t>中青旅3</t>
   </si>
   <si>
-    <t>华东长三角0.55174202574244</t>
+    <t>华东长三角0.19780821941880578</t>
   </si>
   <si>
     <t>保定市3</t>
@@ -185,7 +185,7 @@
     <t>中青旅4</t>
   </si>
   <si>
-    <t>华东长三角0.5612171319702421</t>
+    <t>华东长三角0.9063144940066351</t>
   </si>
   <si>
     <t>保定市4</t>
@@ -200,7 +200,7 @@
     <t>中青旅5</t>
   </si>
   <si>
-    <t>华东长三角0.16775751321026022</t>
+    <t>华东长三角0.8389497787286956</t>
   </si>
   <si>
     <t>保定市5</t>
@@ -215,7 +215,7 @@
     <t>中青旅6</t>
   </si>
   <si>
-    <t>华东长三角0.6518937815377641</t>
+    <t>华东长三角0.18216574746478764</t>
   </si>
   <si>
     <t>保定市6</t>
@@ -230,7 +230,7 @@
     <t>中青旅7</t>
   </si>
   <si>
-    <t>华东长三角0.07918816169136489</t>
+    <t>华东长三角0.722563180150302</t>
   </si>
   <si>
     <t>保定市7</t>
@@ -245,7 +245,7 @@
     <t>中青旅8</t>
   </si>
   <si>
-    <t>华东长三角0.7307440070050814</t>
+    <t>华东长三角0.8617360258811201</t>
   </si>
   <si>
     <t>保定市8</t>
@@ -260,7 +260,7 @@
     <t>中青旅9</t>
   </si>
   <si>
-    <t>华东长三角0.19921101125881713</t>
+    <t>华东长三角0.813431121779879</t>
   </si>
   <si>
     <t>保定市9</t>
@@ -283,7 +283,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-MM-dd HH:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -866,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -913,7 +913,6 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true">
       <alignment wrapText="false" horizontal="right"/>
     </xf>
@@ -1361,7 +1360,7 @@
     <col min="7" max="7" width="9.6875" customWidth="true"/>
     <col min="8" max="8" width="6.0" customWidth="true"/>
     <col min="9" max="9" width="9.0" customWidth="true"/>
-    <col min="10" max="10" width="48.4375" customWidth="true" style="13"/>
+    <col min="10" max="10" width="48.4375" customWidth="true"/>
     <col min="11" max="11" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1445,23 +1444,23 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="16" t="n">
-        <v>477.0</v>
-      </c>
-      <c r="I4" s="17" t="n">
-        <v>0.2650442260187622</v>
-      </c>
-      <c r="J4" s="22" t="n">
-        <v>44547.43659747685</v>
+      <c r="H4" s="15" t="n">
+        <v>590.0</v>
+      </c>
+      <c r="I4" s="16" t="n">
+        <v>0.27559469180989693</v>
+      </c>
+      <c r="J4" s="21" t="n">
+        <v>44547.438632523146</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -1480,23 +1479,23 @@
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="16" t="n">
-        <v>734.0</v>
-      </c>
-      <c r="I5" s="17" t="n">
-        <v>0.9862028771136901</v>
-      </c>
-      <c r="J5" s="22" t="n">
-        <v>44547.4365975</v>
+      <c r="H5" s="15" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="I5" s="16" t="n">
+        <v>0.7764395624794037</v>
+      </c>
+      <c r="J5" s="21" t="n">
+        <v>44547.43863253472</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -1515,23 +1514,23 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="16" t="n">
-        <v>761.0</v>
-      </c>
-      <c r="I6" s="17" t="n">
-        <v>0.10910750468995578</v>
-      </c>
-      <c r="J6" s="22" t="n">
-        <v>44547.43659751157</v>
+      <c r="H6" s="15" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="I6" s="16" t="n">
+        <v>0.7711624769447516</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>44547.43863256944</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -1550,23 +1549,23 @@
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="16" t="n">
-        <v>914.0</v>
-      </c>
-      <c r="I7" s="17" t="n">
-        <v>0.7475588960931183</v>
-      </c>
-      <c r="J7" s="22" t="n">
-        <v>44547.43659752315</v>
+      <c r="H7" s="15" t="n">
+        <v>731.0</v>
+      </c>
+      <c r="I7" s="16" t="n">
+        <v>0.10401203919849422</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>44547.43863258102</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -1585,23 +1584,23 @@
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="16" t="n">
-        <v>181.0</v>
-      </c>
-      <c r="I8" s="17" t="n">
-        <v>0.5496565062235417</v>
-      </c>
-      <c r="J8" s="22" t="n">
-        <v>44547.436597534725</v>
+      <c r="H8" s="15" t="n">
+        <v>829.0</v>
+      </c>
+      <c r="I8" s="16" t="n">
+        <v>0.8883790213396002</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>44547.438632592595</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>20</v>
@@ -1620,23 +1619,23 @@
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="16" t="n">
-        <v>889.0</v>
-      </c>
-      <c r="I9" s="17" t="n">
-        <v>0.13415582888971123</v>
-      </c>
-      <c r="J9" s="22" t="n">
-        <v>44547.43659754629</v>
+      <c r="H9" s="15" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <v>0.6549502938468731</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>44547.438632604164</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>20</v>
@@ -1655,23 +1654,23 @@
       <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="16" t="n">
-        <v>263.0</v>
-      </c>
-      <c r="I10" s="17" t="n">
-        <v>0.7771306793294843</v>
-      </c>
-      <c r="J10" s="22" t="n">
-        <v>44547.43659755787</v>
+      <c r="H10" s="15" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <v>0.46279063777681817</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>44547.43863261574</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>20</v>
@@ -1690,23 +1689,23 @@
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="16" t="n">
-        <v>607.0</v>
-      </c>
-      <c r="I11" s="17" t="n">
-        <v>0.4063262933388111</v>
-      </c>
-      <c r="J11" s="22" t="n">
-        <v>44547.436597569445</v>
+      <c r="H11" s="15" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="I11" s="16" t="n">
+        <v>0.023006803128009734</v>
+      </c>
+      <c r="J11" s="21" t="n">
+        <v>44547.438632627316</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>20</v>
@@ -1725,23 +1724,23 @@
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="16" t="n">
-        <v>969.0</v>
-      </c>
-      <c r="I12" s="17" t="n">
-        <v>0.8598182197461713</v>
-      </c>
-      <c r="J12" s="22" t="n">
-        <v>44547.43659758102</v>
+      <c r="H12" s="15" t="n">
+        <v>964.0</v>
+      </c>
+      <c r="I12" s="16" t="n">
+        <v>0.7059604129396765</v>
+      </c>
+      <c r="J12" s="21" t="n">
+        <v>44547.43863263889</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>20</v>
@@ -1760,23 +1759,23 @@
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="16" t="n">
-        <v>610.0</v>
-      </c>
-      <c r="I13" s="17" t="n">
-        <v>0.5091328323185382</v>
-      </c>
-      <c r="J13" s="22" t="n">
-        <v>44547.43659759259</v>
+      <c r="H13" s="15" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="I13" s="16" t="n">
+        <v>0.8601171411354934</v>
+      </c>
+      <c r="J13" s="21" t="n">
+        <v>44547.43863263889</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>20</v>
@@ -1787,7 +1786,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" t="s" s="3">
         <f>SUM(H4:H13)</f>
         <v>66</v>
@@ -1798,12 +1797,12 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="23"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="11"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1811,7 +1810,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="24"/>
+      <c r="K15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1826,7 +1825,7 @@
     <mergeCell ref="D14:K15"/>
     <mergeCell ref="A14:C15"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="list" sqref="D4:D13" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true" showInputMessage="true" promptTitle="提示" prompt="只能选择下拉框里面的数据">
       <formula1>"陕西省,山西省,辽宁省"</formula1>
     </dataValidation>
@@ -1841,10 +1840,6 @@
       <formula1>0.0</formula1>
       <formula2>20.0</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="between" sqref="J4:J13" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
-      <formula1>DATE(2000,1,3)</formula1>
-      <formula2>DATE(3000,5,6)</formula2>
-    </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="true"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/test/java/excel/export/export2.xlsx
+++ b/src/test/java/excel/export/export2.xlsx
@@ -119,7 +119,7 @@
     <t>中青旅0</t>
   </si>
   <si>
-    <t>华东长三角0.597532822433064</t>
+    <t>华东长三角0.34568869110858713</t>
   </si>
   <si>
     <t>陕西省</t>
@@ -140,7 +140,7 @@
     <t>中青旅1</t>
   </si>
   <si>
-    <t>华东长三角0.1244936594970446</t>
+    <t>华东长三角0.21153648658967528</t>
   </si>
   <si>
     <t>保定市1</t>
@@ -155,7 +155,7 @@
     <t>中青旅2</t>
   </si>
   <si>
-    <t>华东长三角0.7119859875207821</t>
+    <t>华东长三角0.6774768266496705</t>
   </si>
   <si>
     <t>保定市2</t>
@@ -170,7 +170,7 @@
     <t>中青旅3</t>
   </si>
   <si>
-    <t>华东长三角0.19780821941880578</t>
+    <t>华东长三角0.34116277435613085</t>
   </si>
   <si>
     <t>保定市3</t>
@@ -185,7 +185,7 @@
     <t>中青旅4</t>
   </si>
   <si>
-    <t>华东长三角0.9063144940066351</t>
+    <t>华东长三角0.043078775465894115</t>
   </si>
   <si>
     <t>保定市4</t>
@@ -200,7 +200,7 @@
     <t>中青旅5</t>
   </si>
   <si>
-    <t>华东长三角0.8389497787286956</t>
+    <t>华东长三角0.9700419970804461</t>
   </si>
   <si>
     <t>保定市5</t>
@@ -215,7 +215,7 @@
     <t>中青旅6</t>
   </si>
   <si>
-    <t>华东长三角0.18216574746478764</t>
+    <t>华东长三角0.22689489130255813</t>
   </si>
   <si>
     <t>保定市6</t>
@@ -230,7 +230,7 @@
     <t>中青旅7</t>
   </si>
   <si>
-    <t>华东长三角0.722563180150302</t>
+    <t>华东长三角0.8441271178068506</t>
   </si>
   <si>
     <t>保定市7</t>
@@ -245,7 +245,7 @@
     <t>中青旅8</t>
   </si>
   <si>
-    <t>华东长三角0.8617360258811201</t>
+    <t>华东长三角0.828037064973612</t>
   </si>
   <si>
     <t>保定市8</t>
@@ -260,7 +260,7 @@
     <t>中青旅9</t>
   </si>
   <si>
-    <t>华东长三角0.813431121779879</t>
+    <t>华东长三角0.64639489155338</t>
   </si>
   <si>
     <t>保定市9</t>
@@ -283,7 +283,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd HH:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -866,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -913,6 +913,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true">
       <alignment wrapText="false" horizontal="right"/>
     </xf>
@@ -1360,7 +1361,7 @@
     <col min="7" max="7" width="9.6875" customWidth="true"/>
     <col min="8" max="8" width="6.0" customWidth="true"/>
     <col min="9" max="9" width="9.0" customWidth="true"/>
-    <col min="10" max="10" width="48.4375" customWidth="true"/>
+    <col min="10" max="10" width="48.4375" customWidth="true" style="13"/>
     <col min="11" max="11" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1444,23 +1445,23 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15" t="n">
-        <v>590.0</v>
-      </c>
-      <c r="I4" s="16" t="n">
-        <v>0.27559469180989693</v>
-      </c>
-      <c r="J4" s="21" t="n">
-        <v>44547.438632523146</v>
+      <c r="H4" s="16" t="n">
+        <v>757.0</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <v>0.5232054069378747</v>
+      </c>
+      <c r="J4" s="22" t="n">
+        <v>44547.45803282408</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -1479,23 +1480,23 @@
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="15" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="I5" s="16" t="n">
-        <v>0.7764395624794037</v>
-      </c>
-      <c r="J5" s="21" t="n">
-        <v>44547.43863253472</v>
+      <c r="H5" s="16" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="I5" s="17" t="n">
+        <v>0.31525505042979485</v>
+      </c>
+      <c r="J5" s="22" t="n">
+        <v>44547.458032835646</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -1514,23 +1515,23 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="15" t="n">
-        <v>154.0</v>
-      </c>
-      <c r="I6" s="16" t="n">
-        <v>0.7711624769447516</v>
-      </c>
-      <c r="J6" s="21" t="n">
-        <v>44547.43863256944</v>
+      <c r="H6" s="16" t="n">
+        <v>890.0</v>
+      </c>
+      <c r="I6" s="17" t="n">
+        <v>0.4814250397555834</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <v>44547.45803284722</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -1549,23 +1550,23 @@
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="15" t="n">
-        <v>731.0</v>
-      </c>
-      <c r="I7" s="16" t="n">
-        <v>0.10401203919849422</v>
-      </c>
-      <c r="J7" s="21" t="n">
-        <v>44547.43863258102</v>
+      <c r="H7" s="16" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="I7" s="17" t="n">
+        <v>0.34255311091053364</v>
+      </c>
+      <c r="J7" s="22" t="n">
+        <v>44547.45803289352</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -1584,23 +1585,23 @@
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="15" t="n">
-        <v>829.0</v>
-      </c>
-      <c r="I8" s="16" t="n">
-        <v>0.8883790213396002</v>
-      </c>
-      <c r="J8" s="21" t="n">
-        <v>44547.438632592595</v>
+      <c r="H8" s="16" t="n">
+        <v>773.0</v>
+      </c>
+      <c r="I8" s="17" t="n">
+        <v>0.3738723747196657</v>
+      </c>
+      <c r="J8" s="22" t="n">
+        <v>44547.458032905095</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>20</v>
@@ -1619,23 +1620,23 @@
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="15" t="n">
-        <v>416.0</v>
-      </c>
-      <c r="I9" s="16" t="n">
-        <v>0.6549502938468731</v>
-      </c>
-      <c r="J9" s="21" t="n">
-        <v>44547.438632604164</v>
+      <c r="H9" s="16" t="n">
+        <v>961.0</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>0.5038477161028747</v>
+      </c>
+      <c r="J9" s="22" t="n">
+        <v>44547.458032916664</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>20</v>
@@ -1654,23 +1655,23 @@
       <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="15" t="n">
-        <v>762.0</v>
-      </c>
-      <c r="I10" s="16" t="n">
-        <v>0.46279063777681817</v>
-      </c>
-      <c r="J10" s="21" t="n">
-        <v>44547.43863261574</v>
+      <c r="H10" s="16" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="I10" s="17" t="n">
+        <v>0.08981975141113874</v>
+      </c>
+      <c r="J10" s="22" t="n">
+        <v>44547.45803292824</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>20</v>
@@ -1689,23 +1690,23 @@
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="15" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="I11" s="16" t="n">
-        <v>0.023006803128009734</v>
-      </c>
-      <c r="J11" s="21" t="n">
-        <v>44547.438632627316</v>
+      <c r="H11" s="16" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <v>0.8063123919649676</v>
+      </c>
+      <c r="J11" s="22" t="n">
+        <v>44547.458032939816</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>20</v>
@@ -1724,23 +1725,23 @@
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="15" t="n">
-        <v>964.0</v>
-      </c>
-      <c r="I12" s="16" t="n">
-        <v>0.7059604129396765</v>
-      </c>
-      <c r="J12" s="21" t="n">
-        <v>44547.43863263889</v>
+      <c r="H12" s="16" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="I12" s="17" t="n">
+        <v>0.820018120735491</v>
+      </c>
+      <c r="J12" s="22" t="n">
+        <v>44547.45803295139</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>20</v>
@@ -1759,23 +1760,23 @@
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="15" t="n">
-        <v>780.0</v>
-      </c>
-      <c r="I13" s="16" t="n">
-        <v>0.8601171411354934</v>
-      </c>
-      <c r="J13" s="21" t="n">
-        <v>44547.43863263889</v>
+      <c r="H13" s="16" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <v>0.6380103871540606</v>
+      </c>
+      <c r="J13" s="22" t="n">
+        <v>44547.45803296296</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>20</v>
@@ -1786,7 +1787,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="22"/>
+      <c r="C14" s="23"/>
       <c r="D14" t="s" s="3">
         <f>SUM(H4:H13)</f>
         <v>66</v>
@@ -1797,12 +1798,12 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="11"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1810,7 +1811,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="23"/>
+      <c r="K15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1825,7 +1826,7 @@
     <mergeCell ref="D14:K15"/>
     <mergeCell ref="A14:C15"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" sqref="D4:D13" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true" showInputMessage="true" promptTitle="提示" prompt="只能选择下拉框里面的数据">
       <formula1>"陕西省,山西省,辽宁省"</formula1>
     </dataValidation>
@@ -1840,10 +1841,14 @@
       <formula1>0.0</formula1>
       <formula2>20.0</formula2>
     </dataValidation>
+    <dataValidation type="date" operator="between" sqref="J4:J13" allowBlank="true" errorStyle="stop" showErrorMessage="true" showInputMessage="true">
+      <formula1>DATE(2000,1,3)</formula1>
+      <formula2>DATE(3000,5,6)</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="true"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
